--- a/src/test/java/com/pack/testData/UpdateJobTab (2).xlsx
+++ b/src/test/java/com/pack/testData/UpdateJobTab (2).xlsx
@@ -446,11 +446,11 @@
     <t>yy</t>
   </si>
   <si>
-    <t>tom
+    <t>tom
 tom</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantu, Mira
+    <t xml:space="preserve">Cantu, Mira
 </t>
   </si>
   <si>
@@ -892,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
       <selection activeCell="AG15" sqref="AG15" activeCellId="0"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/com/pack/testData/UpdateJobTab (2).xlsx
+++ b/src/test/java/com/pack/testData/UpdateJobTab (2).xlsx
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>Brooks</t>
+  </si>
+  <si>
+    <t>Test6</t>
   </si>
 </sst>
 </file>
@@ -892,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1093,7 +1096,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>585213</v>
+        <v>999886</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -1116,7 +1119,7 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="0">
-        <v>585213</v>
+        <v>999886</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>23</v>
@@ -1157,7 +1160,7 @@
         <v>94</v>
       </c>
       <c r="AE3" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">

--- a/src/test/java/com/pack/testData/UpdateJobTab (2).xlsx
+++ b/src/test/java/com/pack/testData/UpdateJobTab (2).xlsx
@@ -458,6 +458,21 @@
   </si>
   <si>
     <t>Test6</t>
+  </si>
+  <si>
+    <t>Date Range</t>
+  </si>
+  <si>
+    <t>3/19/22 - 4/1/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/19/22 - 4/1/22
+3/19/22 - 4/1/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/19/22 - 4/1/22
+</t>
   </si>
 </sst>
 </file>
@@ -547,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -578,6 +593,12 @@
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -931,7 +952,8 @@
     <col min="28" max="28" width="13.8164" customWidth="1" bestFit="1"/>
     <col min="29" max="29" width="10.543" customWidth="1" bestFit="1"/>
     <col min="30" max="30" width="52.6328" customWidth="1"/>
-    <col min="31" max="31" width="14.4531" customWidth="1"/>
+    <col min="31" max="31" width="14.7266" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" width="14.4531" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1026,6 +1048,9 @@
         <v>81</v>
       </c>
       <c r="AE1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1091,6 +1116,9 @@
         <v>82</v>
       </c>
       <c r="AE2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1159,7 +1187,10 @@
       <c r="AD3" t="s">
         <v>94</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1234,7 +1265,10 @@
       <c r="AD4" t="s">
         <v>95</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1299,7 +1333,10 @@
       <c r="AD5" t="s">
         <v>96</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1372,7 +1409,10 @@
       <c r="AD6" t="s">
         <v>97</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AE6" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1437,7 +1477,10 @@
       <c r="AD7" t="s">
         <v>98</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AE7" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1506,7 +1549,10 @@
       <c r="AD8" t="s">
         <v>91</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AE8" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF8" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1579,7 +1625,10 @@
       <c r="AD9" t="s">
         <v>92</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AE9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF9" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1648,7 +1697,10 @@
       <c r="AD10" t="s">
         <v>84</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AE10" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1713,10 +1765,13 @@
       <c r="AD11" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="AE11" s="13" t="s">
+      <c r="AE11" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF11" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
